--- a/data/trans_dic/DC-Clase-trans_dic.xlsx
+++ b/data/trans_dic/DC-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,93; 19,47</t>
+          <t>12,72; 19,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 10,72</t>
+          <t>5,56; 10,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 13,99</t>
+          <t>7,61; 14,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,93; 21,48</t>
+          <t>14,76; 21,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,88; 26,04</t>
+          <t>16,78; 26,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,16; 25,0</t>
+          <t>14,82; 24,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,85; 15,99</t>
+          <t>8,87; 16,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,69; 38,51</t>
+          <t>30,62; 38,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,5; 21,21</t>
+          <t>15,29; 20,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 15,15</t>
+          <t>10,28; 15,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,77</t>
+          <t>9,05; 13,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,34; 28,37</t>
+          <t>23,02; 28,4</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,36; 14,87</t>
+          <t>8,3; 15,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 12,82</t>
+          <t>6,6; 12,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 8,91</t>
+          <t>3,72; 9,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,95; 22,95</t>
+          <t>15,85; 23,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,78; 34,05</t>
+          <t>25,26; 34,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,8; 23,86</t>
+          <t>15,21; 24,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,4; 21,38</t>
+          <t>13,53; 21,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,37; 39,94</t>
+          <t>31,1; 39,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,81; 23,51</t>
+          <t>17,83; 23,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 16,66</t>
+          <t>11,29; 16,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,24; 14,03</t>
+          <t>9,32; 14,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,05; 29,9</t>
+          <t>23,83; 29,72</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,94; 23,9</t>
+          <t>16,93; 23,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,23; 14,42</t>
+          <t>9,15; 14,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 11,71</t>
+          <t>6,61; 11,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 26,2</t>
+          <t>5,42; 26,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,08; 38,03</t>
+          <t>24,0; 37,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,18; 28,2</t>
+          <t>17,91; 28,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,27; 31,79</t>
+          <t>18,4; 31,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,29; 50,93</t>
+          <t>38,97; 50,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,9; 26,13</t>
+          <t>19,48; 26,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,35; 17,42</t>
+          <t>12,56; 17,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 15,59</t>
+          <t>10,42; 15,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,23; 31,5</t>
+          <t>9,34; 31,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,46; 24,13</t>
+          <t>19,26; 24,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,14; 15,24</t>
+          <t>11,12; 14,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 12,42</t>
+          <t>8,56; 12,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,78; 27,51</t>
+          <t>21,63; 26,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,79; 33,24</t>
+          <t>26,73; 33,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 25,43</t>
+          <t>18,86; 25,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,5; 19,89</t>
+          <t>14,56; 20,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,46; 73,3</t>
+          <t>35,05; 74,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,78; 26,65</t>
+          <t>22,83; 26,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,73; 18,4</t>
+          <t>14,77; 18,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,83; 15,08</t>
+          <t>11,83; 14,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,69; 56,93</t>
+          <t>28,71; 54,08</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,22; 24,39</t>
+          <t>16,34; 25,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,13; 12,52</t>
+          <t>7,24; 12,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,74; 16,3</t>
+          <t>10,68; 15,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,33; 29,66</t>
+          <t>21,37; 29,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,0; 31,73</t>
+          <t>24,18; 31,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,38; 31,0</t>
+          <t>24,34; 31,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,74; 26,3</t>
+          <t>20,02; 26,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>42,66; 60,62</t>
+          <t>42,99; 62,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,11; 27,86</t>
+          <t>22,12; 27,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,18; 22,73</t>
+          <t>18,08; 22,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,59; 20,97</t>
+          <t>16,6; 20,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,89; 50,04</t>
+          <t>35,93; 50,78</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,54</t>
+          <t>0,97; 4,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,63</t>
+          <t>1,49; 6,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,05</t>
+          <t>0,34; 3,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,2; 19,34</t>
+          <t>5,96; 19,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,06; 29,98</t>
+          <t>25,26; 30,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,04; 28,55</t>
+          <t>22,96; 28,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,21; 19,88</t>
+          <t>15,26; 20,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,57; 39,82</t>
+          <t>33,32; 39,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,61; 24,66</t>
+          <t>20,62; 24,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,92; 23,39</t>
+          <t>18,98; 23,58</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,18; 16,07</t>
+          <t>12,17; 16,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,41; 33,45</t>
+          <t>27,42; 33,19</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,13; 18,94</t>
+          <t>16,21; 18,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,33; 11,42</t>
+          <t>9,25; 11,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,56; 10,64</t>
+          <t>8,58; 10,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,28; 22,26</t>
+          <t>15,89; 22,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,46; 29,51</t>
+          <t>26,37; 29,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,3</t>
+          <t>22,31; 25,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,01; 19,75</t>
+          <t>17,04; 19,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>38,35; 55,33</t>
+          <t>38,72; 55,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,81; 23,8</t>
+          <t>21,82; 23,85</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16,31; 18,13</t>
+          <t>16,26; 18,12</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,17; 14,86</t>
+          <t>13,17; 14,94</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>28,44; 39,29</t>
+          <t>28,51; 39,46</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>75707</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34079</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>46331</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>90699</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>64551</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>60593</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>42138</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>153706</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>140258</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>94672</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>88469</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>244405</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>60261; 90956</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24325; 46880</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>32653; 60277</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>74562; 110142</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>51469; 80331</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>46590; 75780</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30793; 56733</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>136992; 171972</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>119293; 162346</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>77242; 113943</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>70227; 107624</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>219282; 270529</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>41829</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39199</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22433</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>87724</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>109641</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>64598</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63828</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>135659</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>151469</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>103796</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>86262</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>223383</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>30452; 56789</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>27654; 53636</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14029; 34440</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>71681; 105642</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>93929; 128139</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>51419; 81783</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>50372; 81409</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>119000; 152292</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>131710; 175932</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>85477; 125160</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>69855; 104929</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>198961; 248093</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>109725</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>73187</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45937</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>105808</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>51041</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>59110</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>40965</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>74891</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>160766</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>132296</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>86901</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>180698</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>91824; 129425</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>57571; 91657</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34493; 60755</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>36246; 175630</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>40274; 63053</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>46590; 73203</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30560; 52789</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>65042; 85047</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>138345; 185764</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>111694; 157465</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>71679; 106327</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>77994; 263516</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>268498</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>150629</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>120658</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>250248</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>214755</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>167202</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>141791</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>484564</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>483253</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>317832</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>262448</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>734812</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>238466; 299506</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>128925; 173394</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>98448; 143777</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>223796; 279249</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>190956; 238746</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>144617; 191639</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>120242; 165650</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>342823; 723744</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>445729; 525231</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>284501; 353485</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>233608; 295025</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>577888; 1088639</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>70420</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>48793</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>83173</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>119551</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>158224</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>211637</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>169837</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>414083</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>228644</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>260430</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>253011</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>533634</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>57282; 87862</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>36974; 63281</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>66263; 99237</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>101526; 139229</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>137513; 181861</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>185376; 237108</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>147763; 193312</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>361689; 526805</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>203344; 257272</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>230036; 291635</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>225569; 284603</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>473011; 668517</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6644</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8391</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3160</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>25989</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>343384</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>282102</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>189423</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>277804</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>350028</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>290493</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>192583</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>303793</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2901; 13354</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3983; 16256</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>963; 8665</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>14339; 45985</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>315473; 377841</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>254721; 313109</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>165098; 217387</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>253652; 302059</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>318962; 381545</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>261276; 324523</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>166571; 222857</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>274754; 332495</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2158</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1505</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2973</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>572823</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>354278</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>321691</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>680020</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>941596</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>845242</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>647982</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1540706</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1514420</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1199520</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>969674</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2220726</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>530255; 619456</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>316414; 392970</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>290451; 357440</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>536315; 749654</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>890873; 998230</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>792204; 900252</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>601868; 696035</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1385146; 1980594</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1450634; 1585790</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1133862; 1263203</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>911118; 1033257</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1982642; 2743669</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/DC-Clase-trans_dic.xlsx
+++ b/data/trans_dic/DC-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
